--- a/excel/sponsors.xlsx
+++ b/excel/sponsors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="216">
   <si>
     <t>leinenkugels</t>
   </si>
@@ -49,6 +49,9 @@
     <t>mazda</t>
   </si>
   <si>
+    <t>m-health-fairview</t>
+  </si>
+  <si>
     <t>green-mill</t>
   </si>
   <si>
@@ -73,18 +76,30 @@
     <t>firestone</t>
   </si>
   <si>
+    <t>93x</t>
+  </si>
+  <si>
     <t>minnesota-farm-bureau</t>
   </si>
   <si>
     <t>mlba</t>
   </si>
   <si>
+    <t>mattress-firm</t>
+  </si>
+  <si>
+    <t>aarp</t>
+  </si>
+  <si>
     <t>humana</t>
   </si>
   <si>
     <t>blue-cross-blue-shield</t>
   </si>
   <si>
+    <t>giant-slide</t>
+  </si>
+  <si>
     <t>xcel-energy</t>
   </si>
   <si>
@@ -109,7 +124,10 @@
     <t>great-river-energy</t>
   </si>
   <si>
-    <t>mcdonalds</t>
+    <t>by-the-yard</t>
+  </si>
+  <si>
+    <t>united-healthcare</t>
   </si>
   <si>
     <t>midwest-dairy-association-of-minnesota</t>
@@ -133,12 +151,81 @@
     <t>device-pitstop</t>
   </si>
   <si>
+    <t>human-touch</t>
+  </si>
+  <si>
     <t>explore-minnesota</t>
   </si>
   <si>
     <t>kwik-trip</t>
   </si>
   <si>
+    <t>t-mobile</t>
+  </si>
+  <si>
+    <t>mn-senior-linkage-line</t>
+  </si>
+  <si>
+    <t>usda</t>
+  </si>
+  <si>
+    <t>united-rentals</t>
+  </si>
+  <si>
+    <t>the-current</t>
+  </si>
+  <si>
+    <t>dari</t>
+  </si>
+  <si>
+    <t>tc-running</t>
+  </si>
+  <si>
+    <t>sun-country-airlines</t>
+  </si>
+  <si>
+    <t>paintcare</t>
+  </si>
+  <si>
+    <t>mall-of-america</t>
+  </si>
+  <si>
+    <t>mn-alliance-with-youth</t>
+  </si>
+  <si>
+    <t>northstar-bus-lines</t>
+  </si>
+  <si>
+    <t>ausm</t>
+  </si>
+  <si>
+    <t>can-do-canines</t>
+  </si>
+  <si>
+    <t>metro-wide-911-psaps</t>
+  </si>
+  <si>
+    <t>people-for-pseo</t>
+  </si>
+  <si>
+    <t>save-the-boundary-waters</t>
+  </si>
+  <si>
+    <t>shiftmed</t>
+  </si>
+  <si>
+    <t>tsa</t>
+  </si>
+  <si>
+    <t>momentum-refresh</t>
+  </si>
+  <si>
+    <t>mintahoe</t>
+  </si>
+  <si>
+    <t>samsung</t>
+  </si>
+  <si>
     <t>Jacob Leinenkugel Brewing Company</t>
   </si>
   <si>
@@ -172,6 +259,9 @@
     <t>Mazda</t>
   </si>
   <si>
+    <t>M Health Fairview</t>
+  </si>
+  <si>
     <t>Green Mill Restaurant</t>
   </si>
   <si>
@@ -202,12 +292,21 @@
     <t>Minnesota Livestock Breeders Association</t>
   </si>
   <si>
+    <t>Mattress Firm</t>
+  </si>
+  <si>
+    <t>AARP</t>
+  </si>
+  <si>
     <t>Humana</t>
   </si>
   <si>
     <t>Blue Cross Blue Shield</t>
   </si>
   <si>
+    <t>Giant Slide</t>
+  </si>
+  <si>
     <t>Xcel Energy</t>
   </si>
   <si>
@@ -232,7 +331,10 @@
     <t>Great River Energy</t>
   </si>
   <si>
-    <t>McDonalds</t>
+    <t>By The Yard</t>
+  </si>
+  <si>
+    <t>United Healthcare</t>
   </si>
   <si>
     <t>Midwest Dairy</t>
@@ -256,12 +358,81 @@
     <t>Device Pitstop</t>
   </si>
   <si>
+    <t>Human Touch</t>
+  </si>
+  <si>
     <t>Explore Minnesota</t>
   </si>
   <si>
     <t>Kwik Trip</t>
   </si>
   <si>
+    <t>T-Mobile</t>
+  </si>
+  <si>
+    <t>MN Senior Linkage Line</t>
+  </si>
+  <si>
+    <t>USDA</t>
+  </si>
+  <si>
+    <t>United Rentals</t>
+  </si>
+  <si>
+    <t>The Current</t>
+  </si>
+  <si>
+    <t>Dari</t>
+  </si>
+  <si>
+    <t>TC Running Company</t>
+  </si>
+  <si>
+    <t>Sun Country Airlines</t>
+  </si>
+  <si>
+    <t>PaintCare</t>
+  </si>
+  <si>
+    <t>Mall of America</t>
+  </si>
+  <si>
+    <t>Minnesota Alliance with Youth</t>
+  </si>
+  <si>
+    <t>Northstar Bus Lines</t>
+  </si>
+  <si>
+    <t>Autism Society of Minnesota</t>
+  </si>
+  <si>
+    <t>Can Do Canines</t>
+  </si>
+  <si>
+    <t>Metro-wide 911 PSAPs</t>
+  </si>
+  <si>
+    <t>People for PSEO</t>
+  </si>
+  <si>
+    <t>Save the Boundary Waters</t>
+  </si>
+  <si>
+    <t>ShiftMed</t>
+  </si>
+  <si>
+    <t>Transportation Security Administration (TSA)</t>
+  </si>
+  <si>
+    <t>Momentum refresh</t>
+  </si>
+  <si>
+    <t>Mintahoe Catering &amp; Events</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
     <t>https://www.leinie.com/</t>
   </si>
   <si>
@@ -295,6 +466,9 @@
     <t>https://www.mazdausa.com/</t>
   </si>
   <si>
+    <t>https://mhealthfairview.org/</t>
+  </si>
+  <si>
     <t>https://www.greenmill.com/</t>
   </si>
   <si>
@@ -319,18 +493,30 @@
     <t>http://www.firestone.com/</t>
   </si>
   <si>
+    <t>http://www.93x.com/</t>
+  </si>
+  <si>
     <t>http://www.fbmn.org</t>
   </si>
   <si>
     <t>http://mnlivestockbreeders.org/</t>
   </si>
   <si>
+    <t>https://www.mattressfirm.com/</t>
+  </si>
+  <si>
+    <t>https://www.aarp.org/</t>
+  </si>
+  <si>
     <t>https://www.humana.com</t>
   </si>
   <si>
     <t>https://www.bluecrossmn.com/</t>
   </si>
   <si>
+    <t>https://business.nicainc.org/list/member/giant-ride-inc-roseville-651-592-2342-2586</t>
+  </si>
+  <si>
     <t>https://www.xcelenergy.com/</t>
   </si>
   <si>
@@ -355,7 +541,10 @@
     <t>https://greatriverenergy.com/</t>
   </si>
   <si>
-    <t>https://www.mcdonalds.com/</t>
+    <t>https://bytheyard.net/</t>
+  </si>
+  <si>
+    <t>https://www.uhc.com/</t>
   </si>
   <si>
     <t>https://www.midwestdairy.com/</t>
@@ -379,10 +568,80 @@
     <t>https://www.devicepitstop.com/</t>
   </si>
   <si>
+    <t>https://www.humantouch.com/</t>
+  </si>
+  <si>
     <t>https://www.exploreminnesota.com/</t>
   </si>
   <si>
     <t>https://www.kwiktrip.com/</t>
+  </si>
+  <si>
+    <t>https://www.t-mobile.com/</t>
+  </si>
+  <si>
+    <t>https://mn.gov/senior-linkage-line/</t>
+  </si>
+  <si>
+    <t>https://www.aphis.usda.gov/aphis/resources/pests-diseases/asf/?utm_medium=referral&amp;utm_source=MNStateFair&amp;utm_content=MN-State-Fair&amp;utm_campaign=cm-african-swine-fever-2022</t>
+  </si>
+  <si>
+    <t>https://www.unitedrentals.com/</t>
+  </si>
+  <si>
+    <t>https://www.thecurrent.org/</t>
+  </si>
+  <si>
+    <t>https://www.realdari.com/</t>
+  </si>
+  <si>
+    <t>https://tcrunningco.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://www.suncountry.com/</t>
+  </si>
+  <si>
+    <t>https://www.paintcare.org/</t>
+  </si>
+  <si>
+    <t>https://www.mallofamerica.com/</t>
+  </si>
+  <si>
+    <t>https://mnyouth.net/</t>
+  </si>
+  <si>
+    <t>https://www.northstarbuslines.com/</t>
+  </si>
+  <si>
+    <t>https://ausm.org/</t>
+  </si>
+  <si>
+    <t>https://candocanines.org/</t>
+  </si>
+  <si>
+    <t>https://dps.mn.gov/divisions/ecn/programs/911/Pages/current-state-system.aspx</t>
+  </si>
+  <si>
+    <t>https://www.peopleforpseo.org/</t>
+  </si>
+  <si>
+    <t>https://www.savetheboundarywaters.org/</t>
+  </si>
+  <si>
+    <t>https://www.shiftmed.com/</t>
+  </si>
+  <si>
+    <t>https://www.tsa.gov/</t>
+  </si>
+  <si>
+    <t>https://momentumrefresh.org/</t>
+  </si>
+  <si>
+    <t>https://www.mintahoe.com/</t>
+  </si>
+  <si>
+    <t>https://www.samsung.com/us/</t>
   </si>
   <si>
     <t>id</t>
@@ -464,8 +723,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G42" totalsRowShown="0">
-  <autoFilter ref="A1:G42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G71" totalsRowShown="0">
+  <autoFilter ref="A1:G71"/>
   <tableColumns count="7">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="slug"/>
@@ -764,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -772,25 +1031,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>209</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>212</v>
       </c>
       <c r="E1" t="s">
-        <v>127</v>
+        <v>213</v>
       </c>
       <c r="F1" t="s">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="G1" t="s">
-        <v>129</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -801,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -821,16 +1080,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -841,16 +1100,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -861,16 +1120,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>306</v>
+        <v>425</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -881,16 +1140,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>204</v>
+        <v>440</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -901,16 +1160,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -921,16 +1180,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -941,16 +1200,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>301</v>
+        <v>203</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -961,10 +1220,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -975,16 +1234,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>310</v>
+        <v>415</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -995,7 +1254,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1004,577 +1263,1061 @@
         <v>202</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>504</v>
+        <v>81</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>302</v>
+        <v>420</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>401</v>
+        <v>300</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>84</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>355</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>309</v>
+        <v>85</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>86</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>340</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>311</v>
+        <v>87</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>88</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>345</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21">
-        <v>6</v>
-      </c>
-      <c r="E21">
-        <v>608</v>
+        <v>89</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22">
-        <v>6</v>
-      </c>
-      <c r="E22">
-        <v>609</v>
+        <v>20</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>308</v>
+        <v>90</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>406</v>
+        <v>310</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>502</v>
+        <v>360</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>407</v>
+        <v>365</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-      <c r="E29">
-        <v>505</v>
+        <v>96</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>507</v>
+        <v>325</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E31">
-        <v>508</v>
+        <v>435</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>509</v>
+        <v>410</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33">
-        <v>5</v>
-      </c>
-      <c r="E33">
-        <v>510</v>
+        <v>100</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>604</v>
+        <v>350</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>606</v>
+        <v>445</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>607</v>
+        <v>450</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37">
-        <v>6</v>
-      </c>
-      <c r="E37">
-        <v>602</v>
+        <v>104</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-      <c r="E38">
-        <v>304</v>
+        <v>105</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D39">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E39">
-        <v>603</v>
+        <v>335</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40">
-        <v>6</v>
-      </c>
-      <c r="E40">
-        <v>601</v>
+        <v>107</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41">
-        <v>6</v>
-      </c>
-      <c r="E41">
-        <v>610</v>
+        <v>108</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42">
+        <v>109</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43">
         <v>5</v>
       </c>
-      <c r="E42">
-        <v>512</v>
-      </c>
-      <c r="G42" s="1" t="s">
+      <c r="E43">
+        <v>505</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>315</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>510</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>400</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>115</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>305</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>56</v>
+      </c>
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>405</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>430</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>119</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>515</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>60</v>
+      </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>121</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
         <v>122</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>123</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>342</v>
+      </c>
+      <c r="G57" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>432</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>433</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60">
+        <v>6</v>
+      </c>
+      <c r="E60">
+        <v>600</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>605</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62">
+        <v>6</v>
+      </c>
+      <c r="E62">
+        <v>610</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63">
+        <v>6</v>
+      </c>
+      <c r="E63">
+        <v>615</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <v>620</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>71</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65">
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <v>625</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>72</v>
+      </c>
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66">
+        <v>6</v>
+      </c>
+      <c r="E66">
+        <v>630</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>73</v>
+      </c>
+      <c r="B67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <v>635</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>74</v>
+      </c>
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>640</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>503</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>76</v>
+      </c>
+      <c r="B70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>137</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>516</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>351</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1620,10 +2363,38 @@
     <hyperlink ref="G40" r:id="rId39"/>
     <hyperlink ref="G41" r:id="rId40"/>
     <hyperlink ref="G42" r:id="rId41"/>
+    <hyperlink ref="G43" r:id="rId42"/>
+    <hyperlink ref="G44" r:id="rId43"/>
+    <hyperlink ref="G45" r:id="rId44"/>
+    <hyperlink ref="G46" r:id="rId45"/>
+    <hyperlink ref="G47" r:id="rId46"/>
+    <hyperlink ref="G48" r:id="rId47"/>
+    <hyperlink ref="G49" r:id="rId48"/>
+    <hyperlink ref="G50" r:id="rId49"/>
+    <hyperlink ref="G51" r:id="rId50"/>
+    <hyperlink ref="G52" r:id="rId51"/>
+    <hyperlink ref="G53" r:id="rId52"/>
+    <hyperlink ref="G54" r:id="rId53"/>
+    <hyperlink ref="G55" r:id="rId54"/>
+    <hyperlink ref="G56" r:id="rId55"/>
+    <hyperlink ref="G58" r:id="rId56"/>
+    <hyperlink ref="G59" r:id="rId57"/>
+    <hyperlink ref="G60" r:id="rId58"/>
+    <hyperlink ref="G61" r:id="rId59"/>
+    <hyperlink ref="G62" r:id="rId60"/>
+    <hyperlink ref="G63" r:id="rId61"/>
+    <hyperlink ref="G64" r:id="rId62"/>
+    <hyperlink ref="G65" r:id="rId63"/>
+    <hyperlink ref="G66" r:id="rId64"/>
+    <hyperlink ref="G67" r:id="rId65"/>
+    <hyperlink ref="G68" r:id="rId66"/>
+    <hyperlink ref="G69" r:id="rId67"/>
+    <hyperlink ref="G70" r:id="rId68"/>
+    <hyperlink ref="G71" r:id="rId69"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId42"/>
+    <tablePart r:id="rId70"/>
   </tableParts>
 </worksheet>
 </file>